--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_6_7.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_6_7.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-56718.30566122737</v>
+        <v>-56718.30566122735</v>
       </c>
     </row>
     <row r="7">
@@ -26329,10 +26329,10 @@
         <v>37627.59193600625</v>
       </c>
       <c r="H2" t="n">
+        <v>37627.59193600624</v>
+      </c>
+      <c r="I2" t="n">
         <v>37627.59193600625</v>
-      </c>
-      <c r="I2" t="n">
-        <v>37627.59193600624</v>
       </c>
       <c r="J2" t="n">
         <v>37627.59193600625</v>
@@ -26347,13 +26347,13 @@
         <v>37627.59193600625</v>
       </c>
       <c r="N2" t="n">
+        <v>37627.59193600625</v>
+      </c>
+      <c r="O2" t="n">
+        <v>37627.59193600625</v>
+      </c>
+      <c r="P2" t="n">
         <v>37627.59193600624</v>
-      </c>
-      <c r="O2" t="n">
-        <v>37627.59193600624</v>
-      </c>
-      <c r="P2" t="n">
-        <v>37627.59193600625</v>
       </c>
     </row>
     <row r="3">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33411.91578776644</v>
+        <v>33411.91578776643</v>
       </c>
       <c r="C4" t="n">
         <v>33411.91578776643</v>
       </c>
       <c r="D4" t="n">
-        <v>33411.91578776644</v>
+        <v>33411.91578776643</v>
       </c>
       <c r="E4" t="n">
         <v>33411.91578776643</v>
       </c>
       <c r="F4" t="n">
-        <v>33411.91578776644</v>
+        <v>33411.91578776643</v>
       </c>
       <c r="G4" t="n">
         <v>33411.91578776643</v>
       </c>
       <c r="H4" t="n">
-        <v>33411.91578776644</v>
+        <v>33411.91578776643</v>
       </c>
       <c r="I4" t="n">
         <v>33411.91578776643</v>
       </c>
       <c r="J4" t="n">
-        <v>33411.91578776644</v>
+        <v>33411.91578776643</v>
       </c>
       <c r="K4" t="n">
         <v>33411.91578776643</v>
       </c>
       <c r="L4" t="n">
-        <v>33411.91578776644</v>
+        <v>33411.91578776643</v>
       </c>
       <c r="M4" t="n">
         <v>33411.91578776643</v>
       </c>
       <c r="N4" t="n">
-        <v>33411.91578776644</v>
+        <v>33411.91578776643</v>
       </c>
       <c r="O4" t="n">
         <v>33411.91578776643</v>
       </c>
       <c r="P4" t="n">
-        <v>33411.91578776644</v>
+        <v>33411.91578776643</v>
       </c>
     </row>
     <row r="5">
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29411.92385176019</v>
+        <v>-29411.92385176018</v>
       </c>
       <c r="C6" t="n">
         <v>-29411.92385176018</v>
       </c>
       <c r="D6" t="n">
-        <v>-29411.92385176019</v>
+        <v>-29411.92385176018</v>
       </c>
       <c r="E6" t="n">
         <v>4215.676148239814</v>
       </c>
       <c r="F6" t="n">
-        <v>4215.676148239807</v>
+        <v>4215.676148239814</v>
       </c>
       <c r="G6" t="n">
         <v>4215.676148239814</v>
@@ -26540,25 +26540,25 @@
         <v>4215.676148239807</v>
       </c>
       <c r="I6" t="n">
-        <v>4215.676148239807</v>
+        <v>4215.676148239814</v>
       </c>
       <c r="J6" t="n">
-        <v>4215.676148239807</v>
+        <v>4215.676148239814</v>
       </c>
       <c r="K6" t="n">
         <v>4215.676148239814</v>
       </c>
       <c r="L6" t="n">
-        <v>4215.676148239807</v>
+        <v>4215.676148239821</v>
       </c>
       <c r="M6" t="n">
         <v>4215.676148239814</v>
       </c>
       <c r="N6" t="n">
-        <v>4215.6761482398</v>
+        <v>4215.676148239814</v>
       </c>
       <c r="O6" t="n">
-        <v>4215.676148239807</v>
+        <v>4215.676148239814</v>
       </c>
       <c r="P6" t="n">
         <v>4215.676148239807</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_6_7.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_6_7.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-56718.30566122735</v>
+        <v>-47015.50734382168</v>
       </c>
     </row>
     <row r="7">
@@ -26332,13 +26332,13 @@
         <v>37627.59193600624</v>
       </c>
       <c r="I2" t="n">
-        <v>37627.59193600625</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="J2" t="n">
-        <v>37627.59193600625</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="K2" t="n">
-        <v>37627.59193600625</v>
+        <v>37627.59193600623</v>
       </c>
       <c r="L2" t="n">
         <v>37627.59193600625</v>
@@ -26347,7 +26347,7 @@
         <v>37627.59193600625</v>
       </c>
       <c r="N2" t="n">
-        <v>37627.59193600625</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="O2" t="n">
         <v>37627.59193600625</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33411.91578776643</v>
+        <v>32252.22165943392</v>
       </c>
       <c r="C4" t="n">
-        <v>33411.91578776643</v>
+        <v>32252.22165943392</v>
       </c>
       <c r="D4" t="n">
-        <v>33411.91578776643</v>
+        <v>32252.22165943392</v>
       </c>
       <c r="E4" t="n">
-        <v>33411.91578776643</v>
+        <v>32252.22165943392</v>
       </c>
       <c r="F4" t="n">
-        <v>33411.91578776643</v>
+        <v>32252.22165943392</v>
       </c>
       <c r="G4" t="n">
-        <v>33411.91578776643</v>
+        <v>32252.22165943392</v>
       </c>
       <c r="H4" t="n">
-        <v>33411.91578776643</v>
+        <v>32252.22165943392</v>
       </c>
       <c r="I4" t="n">
-        <v>33411.91578776643</v>
+        <v>32252.22165943392</v>
       </c>
       <c r="J4" t="n">
-        <v>33411.91578776643</v>
+        <v>32252.22165943392</v>
       </c>
       <c r="K4" t="n">
-        <v>33411.91578776643</v>
+        <v>32252.22165943392</v>
       </c>
       <c r="L4" t="n">
-        <v>33411.91578776643</v>
+        <v>32252.22165943392</v>
       </c>
       <c r="M4" t="n">
-        <v>33411.91578776643</v>
+        <v>32252.22165943392</v>
       </c>
       <c r="N4" t="n">
-        <v>33411.91578776643</v>
+        <v>32252.22165943392</v>
       </c>
       <c r="O4" t="n">
-        <v>33411.91578776643</v>
+        <v>32252.22165943392</v>
       </c>
       <c r="P4" t="n">
-        <v>33411.91578776643</v>
+        <v>32252.22165943392</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29411.92385176018</v>
+        <v>-28252.22972342767</v>
       </c>
       <c r="C6" t="n">
-        <v>-29411.92385176018</v>
+        <v>-28252.22972342767</v>
       </c>
       <c r="D6" t="n">
-        <v>-29411.92385176018</v>
+        <v>-28252.22972342767</v>
       </c>
       <c r="E6" t="n">
-        <v>4215.676148239814</v>
+        <v>5375.370276572328</v>
       </c>
       <c r="F6" t="n">
-        <v>4215.676148239814</v>
+        <v>5375.370276572328</v>
       </c>
       <c r="G6" t="n">
-        <v>4215.676148239814</v>
+        <v>5375.370276572328</v>
       </c>
       <c r="H6" t="n">
-        <v>4215.676148239807</v>
+        <v>5375.370276572321</v>
       </c>
       <c r="I6" t="n">
-        <v>4215.676148239814</v>
+        <v>5375.370276572321</v>
       </c>
       <c r="J6" t="n">
-        <v>4215.676148239814</v>
+        <v>5375.370276572321</v>
       </c>
       <c r="K6" t="n">
-        <v>4215.676148239814</v>
+        <v>5375.370276572314</v>
       </c>
       <c r="L6" t="n">
-        <v>4215.676148239821</v>
+        <v>5375.370276572328</v>
       </c>
       <c r="M6" t="n">
-        <v>4215.676148239814</v>
+        <v>5375.370276572328</v>
       </c>
       <c r="N6" t="n">
-        <v>4215.676148239814</v>
+        <v>5375.370276572321</v>
       </c>
       <c r="O6" t="n">
-        <v>4215.676148239814</v>
+        <v>5375.370276572328</v>
       </c>
       <c r="P6" t="n">
-        <v>4215.676148239807</v>
+        <v>5375.370276572321</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_6_7.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_6_7.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-47015.50734382168</v>
+        <v>-47015.50734382166</v>
       </c>
     </row>
     <row r="7">
@@ -26329,16 +26331,16 @@
         <v>37627.59193600625</v>
       </c>
       <c r="H2" t="n">
-        <v>37627.59193600624</v>
+        <v>37627.59193600625</v>
       </c>
       <c r="I2" t="n">
-        <v>37627.59193600624</v>
+        <v>37627.59193600625</v>
       </c>
       <c r="J2" t="n">
-        <v>37627.59193600624</v>
+        <v>37627.59193600625</v>
       </c>
       <c r="K2" t="n">
-        <v>37627.59193600623</v>
+        <v>37627.59193600625</v>
       </c>
       <c r="L2" t="n">
         <v>37627.59193600625</v>
@@ -26347,13 +26349,13 @@
         <v>37627.59193600625</v>
       </c>
       <c r="N2" t="n">
-        <v>37627.59193600624</v>
+        <v>37627.59193600625</v>
       </c>
       <c r="O2" t="n">
         <v>37627.59193600625</v>
       </c>
       <c r="P2" t="n">
-        <v>37627.59193600624</v>
+        <v>37627.59193600625</v>
       </c>
     </row>
     <row r="3">
@@ -26537,16 +26539,16 @@
         <v>5375.370276572328</v>
       </c>
       <c r="H6" t="n">
-        <v>5375.370276572321</v>
+        <v>5375.370276572328</v>
       </c>
       <c r="I6" t="n">
-        <v>5375.370276572321</v>
+        <v>5375.370276572328</v>
       </c>
       <c r="J6" t="n">
-        <v>5375.370276572321</v>
+        <v>5375.370276572328</v>
       </c>
       <c r="K6" t="n">
-        <v>5375.370276572314</v>
+        <v>5375.370276572328</v>
       </c>
       <c r="L6" t="n">
         <v>5375.370276572328</v>
@@ -26555,13 +26557,13 @@
         <v>5375.370276572328</v>
       </c>
       <c r="N6" t="n">
-        <v>5375.370276572321</v>
+        <v>5375.370276572328</v>
       </c>
       <c r="O6" t="n">
         <v>5375.370276572328</v>
       </c>
       <c r="P6" t="n">
-        <v>5375.370276572321</v>
+        <v>5375.370276572328</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_6_7.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_6_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-47015.50734382166</v>
+        <v>-173776.4612130868</v>
       </c>
     </row>
     <row r="7">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>37627.59193600625</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="C2" t="n">
-        <v>37627.59193600625</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="D2" t="n">
         <v>37627.59193600625</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-28252.22972342767</v>
+        <v>-43402.90369346245</v>
       </c>
       <c r="C6" t="n">
-        <v>-28252.22972342767</v>
+        <v>-43402.90369346245</v>
       </c>
       <c r="D6" t="n">
-        <v>-28252.22972342767</v>
+        <v>-43402.90369346243</v>
       </c>
       <c r="E6" t="n">
-        <v>5375.370276572328</v>
+        <v>-9775.303693462436</v>
       </c>
       <c r="F6" t="n">
-        <v>5375.370276572328</v>
+        <v>-9775.303693462436</v>
       </c>
       <c r="G6" t="n">
-        <v>5375.370276572328</v>
+        <v>-9775.303693462436</v>
       </c>
       <c r="H6" t="n">
-        <v>5375.370276572328</v>
+        <v>-9775.303693462436</v>
       </c>
       <c r="I6" t="n">
-        <v>5375.370276572328</v>
+        <v>-9775.303693462436</v>
       </c>
       <c r="J6" t="n">
-        <v>5375.370276572328</v>
+        <v>-9775.303693462436</v>
       </c>
       <c r="K6" t="n">
-        <v>5375.370276572328</v>
+        <v>-9775.303693462436</v>
       </c>
       <c r="L6" t="n">
-        <v>5375.370276572328</v>
+        <v>-9775.303693462436</v>
       </c>
       <c r="M6" t="n">
-        <v>5375.370276572328</v>
+        <v>-9775.303693462436</v>
       </c>
       <c r="N6" t="n">
-        <v>5375.370276572328</v>
+        <v>-9775.303693462436</v>
       </c>
       <c r="O6" t="n">
-        <v>5375.370276572328</v>
+        <v>-9775.303693462436</v>
       </c>
       <c r="P6" t="n">
-        <v>5375.370276572328</v>
+        <v>-9775.303693462436</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_6_7.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_6_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-173776.4612130868</v>
+        <v>-59691.60273074819</v>
       </c>
     </row>
     <row r="7">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>37627.59193600625</v>
+      </c>
+      <c r="C2" t="n">
+        <v>37627.59193600625</v>
+      </c>
+      <c r="D2" t="n">
         <v>37627.59193600624</v>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
         <v>37627.59193600624</v>
-      </c>
-      <c r="D2" t="n">
-        <v>37627.59193600625</v>
-      </c>
-      <c r="E2" t="n">
-        <v>37627.59193600625</v>
       </c>
       <c r="F2" t="n">
         <v>37627.59193600625</v>
       </c>
       <c r="G2" t="n">
-        <v>37627.59193600625</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="H2" t="n">
-        <v>37627.59193600625</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="I2" t="n">
-        <v>37627.59193600625</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="J2" t="n">
         <v>37627.59193600625</v>
@@ -26346,13 +26346,13 @@
         <v>37627.59193600625</v>
       </c>
       <c r="M2" t="n">
-        <v>37627.59193600625</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="N2" t="n">
-        <v>37627.59193600625</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="O2" t="n">
-        <v>37627.59193600625</v>
+        <v>37627.59193600624</v>
       </c>
       <c r="P2" t="n">
         <v>37627.59193600625</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-43402.90369346245</v>
+        <v>-29767.29712043115</v>
       </c>
       <c r="C6" t="n">
-        <v>-43402.90369346245</v>
+        <v>-29767.29712043115</v>
       </c>
       <c r="D6" t="n">
-        <v>-43402.90369346243</v>
+        <v>-29767.29712043115</v>
       </c>
       <c r="E6" t="n">
-        <v>-9775.303693462436</v>
+        <v>3860.302879568845</v>
       </c>
       <c r="F6" t="n">
-        <v>-9775.303693462436</v>
+        <v>3860.302879568852</v>
       </c>
       <c r="G6" t="n">
-        <v>-9775.303693462436</v>
+        <v>3860.302879568845</v>
       </c>
       <c r="H6" t="n">
-        <v>-9775.303693462436</v>
+        <v>3860.302879568845</v>
       </c>
       <c r="I6" t="n">
-        <v>-9775.303693462436</v>
+        <v>3860.302879568845</v>
       </c>
       <c r="J6" t="n">
-        <v>-9775.303693462436</v>
+        <v>3860.302879568852</v>
       </c>
       <c r="K6" t="n">
-        <v>-9775.303693462436</v>
+        <v>3860.302879568852</v>
       </c>
       <c r="L6" t="n">
-        <v>-9775.303693462436</v>
+        <v>3860.302879568852</v>
       </c>
       <c r="M6" t="n">
-        <v>-9775.303693462436</v>
+        <v>3860.302879568845</v>
       </c>
       <c r="N6" t="n">
-        <v>-9775.303693462436</v>
+        <v>3860.302879568845</v>
       </c>
       <c r="O6" t="n">
-        <v>-9775.303693462436</v>
+        <v>3860.302879568845</v>
       </c>
       <c r="P6" t="n">
-        <v>-9775.303693462436</v>
+        <v>3860.302879568852</v>
       </c>
     </row>
   </sheetData>
